--- a/Home_batters.xlsx
+++ b/Home_batters.xlsx
@@ -1,21 +1,126 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alkin\Desktop\github\r_practice\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ADA3D4-E3E0-4137-AC5A-4074B65BD14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>batter_id</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>R_SL</t>
+  </si>
+  <si>
+    <t>R_FAl</t>
+  </si>
+  <si>
+    <t>R_FAs</t>
+  </si>
+  <si>
+    <t>R_FTl</t>
+  </si>
+  <si>
+    <t>R_FTs</t>
+  </si>
+  <si>
+    <t>R_CU</t>
+  </si>
+  <si>
+    <t>R_CH</t>
+  </si>
+  <si>
+    <t>L_SL</t>
+  </si>
+  <si>
+    <t>L_FAl</t>
+  </si>
+  <si>
+    <t>L_FAs</t>
+  </si>
+  <si>
+    <t>L_FTl</t>
+  </si>
+  <si>
+    <t>L_FTs</t>
+  </si>
+  <si>
+    <t>L_CU</t>
+  </si>
+  <si>
+    <t>L_CH</t>
+  </si>
+  <si>
+    <t>Cedric Mullins</t>
+  </si>
+  <si>
+    <t>Adley Rutschman</t>
+  </si>
+  <si>
+    <t>Gunnar Henderson</t>
+  </si>
+  <si>
+    <t>Anthony Santander</t>
+  </si>
+  <si>
+    <t>Ryan Mountcastle</t>
+  </si>
+  <si>
+    <t>Ramón Urías</t>
+  </si>
+  <si>
+    <t>Kyle Stowers</t>
+  </si>
+  <si>
+    <t>Austin Hays</t>
+  </si>
+  <si>
+    <t>Jorge Mateo</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,15 +164,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +254,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +306,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,110 +499,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>batter_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AB</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>R_SL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>R_FAl</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>R_FAs</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>R_FTl</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>R_FTs</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>R_CU</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>R_CH</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>L_SL</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>L_FAl</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>L_FAs</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>L_FTl</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>L_FTs</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>L_CU</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>L_CH</t>
-        </is>
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Cedric Mullins</t>
-        </is>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
       </c>
       <c r="B2">
         <v>656775</v>
@@ -465,53 +578,51 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>9.870550161812298</v>
+        <v>9.8705501618122984</v>
       </c>
       <c r="F2">
         <v>5.26890756302521</v>
       </c>
       <c r="G2">
-        <v>10.39705882352941</v>
+        <v>10.397058823529409</v>
       </c>
       <c r="H2">
-        <v>3.489130434782609</v>
+        <v>3.4891304347826089</v>
       </c>
       <c r="I2">
-        <v>13.30434782608696</v>
+        <v>13.304347826086961</v>
       </c>
       <c r="J2">
-        <v>13.60689655172414</v>
+        <v>13.606896551724139</v>
       </c>
       <c r="K2">
-        <v>12.10984848484848</v>
+        <v>12.109848484848481</v>
       </c>
       <c r="L2">
-        <v>8.203319502074688</v>
+        <v>8.2033195020746881</v>
       </c>
       <c r="M2">
-        <v>2.418079096045198</v>
+        <v>2.4180790960451981</v>
       </c>
       <c r="N2">
         <v>9.898305084745763</v>
       </c>
       <c r="O2">
-        <v>3.016129032258065</v>
+        <v>3.0161290322580649</v>
       </c>
       <c r="P2">
-        <v>7.516129032258065</v>
+        <v>7.5161290322580649</v>
       </c>
       <c r="Q2">
-        <v>9.389830508474578</v>
+        <v>9.3898305084745779</v>
       </c>
       <c r="R2">
-        <v>10.86842105263158</v>
+        <v>10.868421052631581</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Adley Rutschman</t>
-        </is>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
       </c>
       <c r="B3">
         <v>668939</v>
@@ -529,16 +640,16 @@
         <v>9.495176848874598</v>
       </c>
       <c r="G3">
-        <v>11.11254019292605</v>
+        <v>11.112540192926049</v>
       </c>
       <c r="H3">
-        <v>7.368055555555555</v>
+        <v>7.3680555555555554</v>
       </c>
       <c r="I3">
-        <v>15.02083333333334</v>
+        <v>15.020833333333339</v>
       </c>
       <c r="J3">
-        <v>7.691780821917808</v>
+        <v>7.6917808219178081</v>
       </c>
       <c r="K3">
         <v>10.22377622377622</v>
@@ -547,29 +658,27 @@
         <v>12.72043010752688</v>
       </c>
       <c r="M3">
-        <v>3.232258064516129</v>
+        <v>3.2322580645161292</v>
       </c>
       <c r="N3">
-        <v>7.174193548387096</v>
+        <v>7.1741935483870964</v>
       </c>
       <c r="O3">
         <v>0.1492537313432836</v>
       </c>
       <c r="P3">
-        <v>8.35820895522388</v>
+        <v>8.3582089552238799</v>
       </c>
       <c r="Q3">
-        <v>9.605263157894738</v>
+        <v>9.6052631578947381</v>
       </c>
       <c r="R3">
-        <v>6.11578947368421</v>
+        <v>6.1157894736842104</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Gunnar Henderson</t>
-        </is>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
       </c>
       <c r="B4">
         <v>683002</v>
@@ -584,28 +693,28 @@
         <v>11.55813953488372</v>
       </c>
       <c r="F4">
-        <v>9.378640776699029</v>
+        <v>9.3786407766990294</v>
       </c>
       <c r="G4">
-        <v>12.1747572815534</v>
+        <v>12.174757281553401</v>
       </c>
       <c r="H4">
-        <v>5.914285714285715</v>
+        <v>5.9142857142857146</v>
       </c>
       <c r="I4">
         <v>10.05714285714286</v>
       </c>
       <c r="J4">
-        <v>6.903846153846155</v>
+        <v>6.9038461538461551</v>
       </c>
       <c r="K4">
         <v>11.25757575757576</v>
       </c>
       <c r="L4">
-        <v>9.044444444444444</v>
+        <v>9.0444444444444443</v>
       </c>
       <c r="M4">
-        <v>0.6451612903225806</v>
+        <v>0.64516129032258063</v>
       </c>
       <c r="N4">
         <v>2.903225806451613</v>
@@ -623,11 +732,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Anthony Santander</t>
-        </is>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
       </c>
       <c r="B5">
         <v>623993</v>
@@ -642,34 +749,34 @@
         <v>10.75537634408602</v>
       </c>
       <c r="F5">
-        <v>5.474945533769064</v>
+        <v>5.4749455337690636</v>
       </c>
       <c r="G5">
         <v>9.405228758169935</v>
       </c>
       <c r="H5">
-        <v>3.026178010471204</v>
+        <v>3.0261780104712042</v>
       </c>
       <c r="I5">
         <v>10.73298429319372</v>
       </c>
       <c r="J5">
-        <v>8.861635220125786</v>
+        <v>8.8616352201257858</v>
       </c>
       <c r="K5">
         <v>10.58651026392962</v>
       </c>
       <c r="L5">
-        <v>8.736526946107784</v>
+        <v>8.7365269461077837</v>
       </c>
       <c r="M5">
-        <v>3.788659793814433</v>
+        <v>3.7886597938144329</v>
       </c>
       <c r="N5">
-        <v>9.865979381443299</v>
+        <v>9.8659793814432994</v>
       </c>
       <c r="O5">
-        <v>1.686868686868687</v>
+        <v>1.6868686868686871</v>
       </c>
       <c r="P5">
         <v>19.08080808080808</v>
@@ -678,14 +785,12 @@
         <v>14.04166666666667</v>
       </c>
       <c r="R5">
-        <v>11.44915254237288</v>
+        <v>11.449152542372881</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Ryan Mountcastle</t>
-        </is>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
       </c>
       <c r="B6">
         <v>663624</v>
@@ -700,50 +805,48 @@
         <v>10.30581039755352</v>
       </c>
       <c r="F6">
-        <v>4.861671469740634</v>
+        <v>4.8616714697406342</v>
       </c>
       <c r="G6">
         <v>10.30547550432277</v>
       </c>
       <c r="H6">
-        <v>5.236714975845411</v>
+        <v>5.2367149758454108</v>
       </c>
       <c r="I6">
-        <v>9.647342995169083</v>
+        <v>9.6473429951690832</v>
       </c>
       <c r="J6">
         <v>13.37007874015748</v>
       </c>
       <c r="K6">
-        <v>17.83333333333333</v>
+        <v>17.833333333333329</v>
       </c>
       <c r="L6">
-        <v>8.354166666666666</v>
+        <v>8.3541666666666661</v>
       </c>
       <c r="M6">
-        <v>3.638709677419355</v>
+        <v>3.6387096774193548</v>
       </c>
       <c r="N6">
-        <v>7.703225806451615</v>
+        <v>7.7032258064516146</v>
       </c>
       <c r="O6">
-        <v>1.698412698412698</v>
+        <v>1.6984126984126979</v>
       </c>
       <c r="P6">
-        <v>8.412698412698415</v>
+        <v>8.4126984126984148</v>
       </c>
       <c r="Q6">
-        <v>16.55555555555556</v>
+        <v>16.555555555555561</v>
       </c>
       <c r="R6">
-        <v>9.805970149253731</v>
+        <v>9.8059701492537314</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Ramón Urías</t>
-        </is>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
       </c>
       <c r="B7">
         <v>602104</v>
@@ -758,50 +861,48 @@
         <v>11.77197802197802</v>
       </c>
       <c r="F7">
-        <v>5.792682926829269</v>
+        <v>5.7926829268292694</v>
       </c>
       <c r="G7">
-        <v>11.08536585365854</v>
+        <v>11.085365853658541</v>
       </c>
       <c r="H7">
-        <v>5.228915662650603</v>
+        <v>5.2289156626506026</v>
       </c>
       <c r="I7">
-        <v>11.40963855421687</v>
+        <v>11.409638554216871</v>
       </c>
       <c r="J7">
-        <v>6.72857142857143</v>
+        <v>6.7285714285714304</v>
       </c>
       <c r="K7">
         <v>10.59615384615385</v>
       </c>
       <c r="L7">
-        <v>10.85294117647059</v>
+        <v>10.852941176470591</v>
       </c>
       <c r="M7">
-        <v>3.15702479338843</v>
+        <v>3.1570247933884299</v>
       </c>
       <c r="N7">
-        <v>9.694214876033058</v>
+        <v>9.6942148760330582</v>
       </c>
       <c r="O7">
-        <v>3.377358490566038</v>
+        <v>3.3773584905660381</v>
       </c>
       <c r="P7">
-        <v>11.26415094339623</v>
+        <v>11.264150943396229</v>
       </c>
       <c r="Q7">
-        <v>7.070175438596491</v>
+        <v>7.0701754385964906</v>
       </c>
       <c r="R7">
         <v>10.23863636363636</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Kyle Stowers</t>
-        </is>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
       </c>
       <c r="B8">
         <v>669065</v>
@@ -816,16 +917,16 @@
         <v>6.6</v>
       </c>
       <c r="F8">
-        <v>5.28235294117647</v>
+        <v>5.2823529411764696</v>
       </c>
       <c r="G8">
         <v>11.96470588235294</v>
       </c>
       <c r="H8">
-        <v>2.891891891891892</v>
+        <v>2.8918918918918921</v>
       </c>
       <c r="I8">
-        <v>6.864864864864865</v>
+        <v>6.8648648648648649</v>
       </c>
       <c r="J8">
         <v>13.13513513513514</v>
@@ -855,11 +956,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Austin Hays</t>
-        </is>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
       </c>
       <c r="B9">
         <v>669720</v>
@@ -871,16 +970,16 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>9.895038167938932</v>
+        <v>9.8950381679389317</v>
       </c>
       <c r="F9">
-        <v>7.91497975708502</v>
+        <v>7.9149797570850202</v>
       </c>
       <c r="G9">
-        <v>10.19028340080972</v>
+        <v>10.190283400809721</v>
       </c>
       <c r="H9">
-        <v>3.592592592592592</v>
+        <v>3.5925925925925921</v>
       </c>
       <c r="I9">
         <v>10.34814814814815</v>
@@ -892,10 +991,10 @@
         <v>10.74576271186441</v>
       </c>
       <c r="L9">
-        <v>12.95238095238095</v>
+        <v>12.952380952380951</v>
       </c>
       <c r="M9">
-        <v>2.410958904109589</v>
+        <v>2.4109589041095889</v>
       </c>
       <c r="N9">
         <v>10.15068493150685</v>
@@ -904,20 +1003,18 @@
         <v>2.9</v>
       </c>
       <c r="P9">
-        <v>9.683333333333334</v>
+        <v>9.6833333333333336</v>
       </c>
       <c r="Q9">
-        <v>7.87719298245614</v>
+        <v>7.8771929824561404</v>
       </c>
       <c r="R9">
         <v>12.08403361344538</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Jorge Mateo</t>
-        </is>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
       </c>
       <c r="B10">
         <v>622761</v>
@@ -929,28 +1026,28 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>10.4866785079929</v>
+        <v>10.486678507992901</v>
       </c>
       <c r="F10">
-        <v>3.123134328358209</v>
+        <v>3.1231343283582089</v>
       </c>
       <c r="G10">
-        <v>7.712686567164179</v>
+        <v>7.7126865671641793</v>
       </c>
       <c r="H10">
-        <v>3.005464480874317</v>
+        <v>3.0054644808743172</v>
       </c>
       <c r="I10">
         <v>10.42076502732241</v>
       </c>
       <c r="J10">
-        <v>14.56179775280899</v>
+        <v>14.561797752808991</v>
       </c>
       <c r="K10">
-        <v>9.924528301886795</v>
+        <v>9.9245283018867951</v>
       </c>
       <c r="L10">
-        <v>7.324137931034483</v>
+        <v>7.3241379310344827</v>
       </c>
       <c r="M10">
         <v>1.338235294117647</v>
@@ -959,16 +1056,16 @@
         <v>13.76470588235294</v>
       </c>
       <c r="O10">
-        <v>4.200000000000001</v>
+        <v>4.2000000000000011</v>
       </c>
       <c r="P10">
-        <v>4.986666666666666</v>
+        <v>4.9866666666666664</v>
       </c>
       <c r="Q10">
         <v>13.05454545454546</v>
       </c>
       <c r="R10">
-        <v>7.085271317829458</v>
+        <v>7.0852713178294584</v>
       </c>
     </row>
   </sheetData>
